--- a/atvmans.xlsx
+++ b/atvmans.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Desktop\fuvdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Desktop\Task manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5BD359-295A-4813-A255-58DF0B2BE758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A28C8B8-DC1D-4CC0-AB57-E350697A358A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="4065" windowWidth="20730" windowHeight="11535" xr2:uid="{FD453EF9-81AA-49AE-A837-A80D398E3442}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="15030" xr2:uid="{FD453EF9-81AA-49AE-A837-A80D398E3442}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>taxa do tempo</t>
   </si>
@@ -39,15 +40,6 @@
     <t>gp</t>
   </si>
   <si>
-    <t>gp1</t>
-  </si>
-  <si>
-    <t>gp2</t>
-  </si>
-  <si>
-    <t>gp3</t>
-  </si>
-  <si>
     <t>hora 28</t>
   </si>
   <si>
@@ -57,12 +49,6 @@
     <t>taxa tempo</t>
   </si>
   <si>
-    <t>sobre variavel</t>
-  </si>
-  <si>
-    <t>hora magica</t>
-  </si>
-  <si>
     <t>Banco de dados</t>
   </si>
   <si>
@@ -100,15 +86,22 @@
   </si>
   <si>
     <t>Nome</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>todo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -147,12 +140,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,7 +464,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,10 +492,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -519,12 +516,15 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2">
-        <f>G17*(A2/100)</f>
-        <v>100.80000000000001</v>
+      <c r="E2" s="2">
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="G2" s="2">
+        <f>C2-E2</f>
+        <v>1.3720000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -542,12 +542,16 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <f>G17*(A3/100)</f>
-        <v>122.4</v>
+      <c r="E3" s="2">
+        <f>C3</f>
+        <v>1.6660000000000001</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G15" si="1">C3-E3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -565,12 +569,15 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E9" si="1">G$17*(A4/100)</f>
-        <v>93.600000000000009</v>
+      <c r="E4" s="5">
+        <v>0.23730000000000001</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0367000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -588,12 +595,16 @@
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
+        <f>C5</f>
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
         <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -611,12 +622,16 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
+        <f t="shared" ref="E6:E15" si="3">C6</f>
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2">
         <f t="shared" si="1"/>
-        <v>57.6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -634,12 +649,16 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.68600000000000017</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2">
         <f t="shared" si="1"/>
-        <v>50.400000000000006</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -657,27 +676,16 @@
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2">
         <f t="shared" si="1"/>
-        <v>43.199999999999996</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -695,75 +703,32 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2">
         <f t="shared" si="1"/>
-        <v>43.199999999999996</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3">
-        <f>SUMIF(D2:D15,1,B2:B15)</f>
-        <v>12.320000000000002</v>
-      </c>
-      <c r="J9" s="2">
-        <f>SUMIF(D2:D15,"1",C2:C15)</f>
-        <v>4.3120000000000003</v>
-      </c>
-      <c r="K9">
-        <f>SUMIF($D$2:$D$15,"1",A2:A15)</f>
-        <v>44</v>
-      </c>
-      <c r="L9">
-        <f>SUMIF($D$2:$D$15,"1",$E$2:$E$15)</f>
-        <v>316.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <f>SUMIF(D2:D15,2,B2:B15)</f>
-        <v>10.360000000000001</v>
-      </c>
-      <c r="J10" s="2">
-        <f>SUMIF(D2:D15,2,C2:C15)</f>
-        <v>3.6260000000000003</v>
-      </c>
-      <c r="K10">
-        <f>SUMIF(D2:D15,2,A2:A15)</f>
-        <v>37</v>
-      </c>
-      <c r="L10">
-        <f>SUMIF($D$2:$D$15,2,$E$2:$E$15)</f>
-        <v>266.39999999999998</v>
-      </c>
+      <c r="E10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="4">
-        <f>SUMIF(D2:D15,3,B2:B15)</f>
-        <v>5.32</v>
-      </c>
-      <c r="J11" s="3">
-        <f>SUMIF(D2:D15,3,C2:C15)</f>
-        <v>1.8620000000000001</v>
-      </c>
-      <c r="K11">
-        <f>SUMIF(D2:D15,3,A2:A15)</f>
-        <v>19</v>
-      </c>
-      <c r="L11">
-        <f>SUMIF($D$2:$D$15,3,$E$2:$E$15)</f>
-        <v>136.80000000000001</v>
-      </c>
+      <c r="E11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -780,29 +745,18 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="E12">
-        <f>G$17*(A12/100)</f>
-        <v>36</v>
+      <c r="E12" s="2">
+        <f t="shared" si="3"/>
+        <v>0.49000000000000005</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12">
-        <f t="shared" ref="I12:J12" si="3">SUM(I9:I11)</f>
-        <v>28.000000000000004</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="K12">
-        <f>SUM(K9:K11)</f>
-        <v>100</v>
-      </c>
-      <c r="L12">
-        <f>SUM(L9:L11)</f>
-        <v>720</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -819,12 +773,16 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13">
-        <f>G$17*(A13/100)</f>
-        <v>36</v>
+      <c r="E13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.49000000000000005</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -842,12 +800,16 @@
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="E14">
-        <f>G$17*(A14/100)</f>
-        <v>36</v>
+      <c r="E14" s="2">
+        <f t="shared" si="3"/>
+        <v>0.49000000000000005</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -865,27 +827,112 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15">
-        <f>G$17*(A15/100)</f>
-        <v>28.8</v>
+      <c r="E15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.39200000000000002</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G17">
-        <v>720</v>
-      </c>
-    </row>
     <row r="18" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G18" s="1"/>
     </row>
     <row r="22" spans="7:9" x14ac:dyDescent="0.25">
       <c r="I22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1027E80C-DB8E-4C3D-8FB8-51F209BF36FB}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <f>SUMIF(Planilha1!$D$2:$D$15,1,Planilha1!B$2:B$15)</f>
+        <v>12.320000000000002</v>
+      </c>
+      <c r="C2" s="3">
+        <f>SUMIF(Planilha1!$D$2:$D$15,1,Planilha1!C$2:C$15)</f>
+        <v>4.3120000000000003</v>
+      </c>
+      <c r="D2" s="3">
+        <f>SUMIF(Planilha1!$D$2:$D$15,1,Planilha1!$A$2:$A$15)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <f>SUMIF(Planilha1!$D$2:$D$15,2,Planilha1!B$2:B$15)</f>
+        <v>10.360000000000001</v>
+      </c>
+      <c r="C3" s="3">
+        <f>SUMIF(Planilha1!$D$2:$D$15,2,Planilha1!C$2:C$15)</f>
+        <v>3.6260000000000003</v>
+      </c>
+      <c r="D3" s="3">
+        <f>SUMIF(Planilha1!$D$2:$D$15,2,Planilha1!$A$2:$A$15)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <f>SUMIF(Planilha1!$D$2:$D$15,3,Planilha1!B$2:B$15)</f>
+        <v>5.32</v>
+      </c>
+      <c r="C4" s="3">
+        <f>SUMIF(Planilha1!$D$2:$D$15,3,Planilha1!C$2:C$15)</f>
+        <v>1.8620000000000001</v>
+      </c>
+      <c r="D4" s="3">
+        <f>SUMIF(Planilha1!$D$2:$D$15,3,Planilha1!$A$2:$A$15)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/atvmans.xlsx
+++ b/atvmans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Desktop\Task manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A28C8B8-DC1D-4CC0-AB57-E350697A358A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D251ECB-16F7-4C11-99C8-5B54AC1D8BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="15030" xr2:uid="{FD453EF9-81AA-49AE-A837-A80D398E3442}"/>
+    <workbookView xWindow="15090" yWindow="1950" windowWidth="18420" windowHeight="12135" xr2:uid="{FD453EF9-81AA-49AE-A837-A80D398E3442}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -464,7 +464,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,15 +543,15 @@
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <f>C3</f>
-        <v>1.6660000000000001</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" ref="G3:G15" si="1">C3-E3</f>
-        <v>0</v>
+        <v>1.6660000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -570,14 +570,14 @@
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <v>0.23730000000000001</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="1"/>
-        <v>1.0367000000000002</v>
+        <v>1.2740000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -596,15 +596,15 @@
         <v>2</v>
       </c>
       <c r="E5" s="2">
-        <f>C5</f>
-        <v>0.98000000000000009</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.98000000000000009</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -623,15 +623,15 @@
         <v>2</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ref="E6:E15" si="3">C6</f>
-        <v>0.78400000000000003</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.78400000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -650,7 +650,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E6:E15" si="3">C7</f>
         <v>0.68600000000000017</v>
       </c>
       <c r="F7" t="s">
@@ -828,18 +828,19 @@
         <v>3</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="3"/>
-        <v>0.39200000000000002</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.39200000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="18" spans="7:9" x14ac:dyDescent="0.25">

--- a/atvmans.xlsx
+++ b/atvmans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Desktop\Task manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D251ECB-16F7-4C11-99C8-5B54AC1D8BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AAB50D-3EBE-4BDD-B1C8-1B8ED5E25D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15090" yWindow="1950" windowWidth="18420" windowHeight="12135" xr2:uid="{FD453EF9-81AA-49AE-A837-A80D398E3442}"/>
+    <workbookView xWindow="5295" yWindow="2070" windowWidth="18420" windowHeight="12135" xr2:uid="{FD453EF9-81AA-49AE-A837-A80D398E3442}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -464,7 +464,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,15 +650,15 @@
         <v>2</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ref="E6:E15" si="3">C7</f>
-        <v>0.68600000000000017</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C7-E7</f>
+        <v>0.68600000000000017</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -677,15 +677,14 @@
         <v>2</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="3"/>
-        <v>0.58799999999999997</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.58799999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -704,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E7:E14" si="3">C9</f>
         <v>0.58799999999999997</v>
       </c>
       <c r="F9" t="s">

--- a/atvmans.xlsx
+++ b/atvmans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Desktop\Task manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AAB50D-3EBE-4BDD-B1C8-1B8ED5E25D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C085B56E-ECA3-4239-B5CC-AA4D2791A997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="2070" windowWidth="18420" windowHeight="12135" xr2:uid="{FD453EF9-81AA-49AE-A837-A80D398E3442}"/>
+    <workbookView xWindow="5295" yWindow="2070" windowWidth="21330" windowHeight="12135" xr2:uid="{FD453EF9-81AA-49AE-A837-A80D398E3442}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -64,18 +64,12 @@
     <t>história</t>
   </si>
   <si>
-    <t>química</t>
-  </si>
-  <si>
     <t>Matemática</t>
   </si>
   <si>
     <t>geografia</t>
   </si>
   <si>
-    <t xml:space="preserve"> a vida intelectual</t>
-  </si>
-  <si>
     <t>crime e castigo</t>
   </si>
   <si>
@@ -92,16 +86,23 @@
   </si>
   <si>
     <t>todo</t>
+  </si>
+  <si>
+    <t>a vida intelectual sertillanges</t>
+  </si>
+  <si>
+    <t>quimica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -140,13 +141,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,7 +466,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,6 +476,7 @@
     <col min="3" max="3" width="16.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" customWidth="1"/>
     <col min="12" max="12" width="11.140625" customWidth="1"/>
   </cols>
@@ -492,13 +495,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -654,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2">
         <f>C7-E7</f>
@@ -680,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="1"/>
@@ -703,15 +706,15 @@
         <v>2</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ref="E7:E14" si="3">C9</f>
-        <v>0.58799999999999997</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="2"/>
@@ -745,15 +748,14 @@
         <v>3</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="3"/>
-        <v>0.49000000000000005</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.49000000000000005</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -773,15 +775,14 @@
         <v>3</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="3"/>
-        <v>0.49000000000000005</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.49000000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -800,15 +801,14 @@
         <v>3</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="3"/>
-        <v>0.49000000000000005</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.49000000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -827,11 +827,10 @@
         <v>3</v>
       </c>
       <c r="E15" s="2">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
@@ -842,14 +841,18 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G18" s="1"/>
     </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
       <c r="I22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/atvmans.xlsx
+++ b/atvmans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Desktop\Task manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C085B56E-ECA3-4239-B5CC-AA4D2791A997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202F6E40-7D81-4FA2-8970-B4A0C2B55C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="2070" windowWidth="21330" windowHeight="12135" xr2:uid="{FD453EF9-81AA-49AE-A837-A80D398E3442}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="15030" xr2:uid="{FD453EF9-81AA-49AE-A837-A80D398E3442}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>taxa do tempo</t>
   </si>
@@ -92,17 +92,25 @@
   </si>
   <si>
     <t>quimica</t>
+  </si>
+  <si>
+    <t>decrescimo</t>
+  </si>
+  <si>
+    <t>acrescimo</t>
+  </si>
+  <si>
+    <t>sobre 9.9923</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -141,14 +149,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,7 +473,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +483,7 @@
     <col min="3" max="3" width="16.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" customWidth="1"/>
     <col min="12" max="12" width="11.140625" customWidth="1"/>
   </cols>
@@ -503,6 +510,15 @@
       <c r="G1" t="s">
         <v>18</v>
       </c>
+      <c r="H1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -520,14 +536,22 @@
         <v>1</v>
       </c>
       <c r="E2" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2">
-        <f>C2-E2</f>
-        <v>1.3720000000000003</v>
+        <f>J2-E2</f>
+        <v>1.3989220000000002</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.25640000000000002</v>
+      </c>
+      <c r="J2">
+        <f>9.9923 * (A2/100)</f>
+        <v>1.3989220000000002</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -546,15 +570,22 @@
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <f>0</f>
-        <v>0</v>
+        <f>J3 -H3</f>
+        <v>1.4499910000000003</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G15" si="1">C3-E3</f>
-        <v>1.6660000000000001</v>
+        <f>J3-E3</f>
+        <v>0.24869999999999992</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.2487</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J15" si="1">9.9923 * (A3/100)</f>
+        <v>1.6986910000000002</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -572,15 +603,27 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="2">
+        <f t="shared" ref="G4:G15" si="2">J4-E4</f>
+        <v>1.298999</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1.5342</v>
+      </c>
+      <c r="I4" s="5">
+        <f>(J4 -H4) * -1</f>
+        <v>0.23520099999999999</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="1"/>
-        <v>1.2740000000000002</v>
+        <v>1.298999</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -592,22 +635,29 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C15" si="2">9.8*(A5/100)</f>
+        <f t="shared" ref="C5:C15" si="3">9.8*(A5/100)</f>
         <v>0.98000000000000009</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" s="2">
-        <f>0</f>
-        <v>0</v>
+        <f t="shared" ref="E3:E15" si="4">J5 -H5</f>
+        <v>0.97123000000000004</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2">
+        <f t="shared" si="2"/>
+        <v>2.8000000000000025E-2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="1"/>
-        <v>0.98000000000000009</v>
+        <v>0.99923000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -619,22 +669,29 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78400000000000003</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" s="2">
-        <f>0</f>
-        <v>0</v>
+        <f>J6 -H6</f>
+        <v>0.67798400000000003</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.12139999999999995</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.12139999999999999</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="1"/>
-        <v>0.78400000000000003</v>
+        <v>0.79938399999999998</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -646,22 +703,29 @@
         <v>1.9600000000000002</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.68600000000000017</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" s="2">
-        <f>0</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.67576100000000006</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="2">
-        <f>C7-E7</f>
-        <v>0.68600000000000017</v>
+        <f t="shared" si="2"/>
+        <v>2.3700000000000054E-2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0.69946100000000011</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -673,21 +737,29 @@
         <v>1.68</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.58799999999999997</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.59253800000000001</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000062E-3</v>
+      </c>
+      <c r="H8" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="1"/>
-        <v>0.58799999999999997</v>
+        <v>0.59953800000000002</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -699,38 +771,42 @@
         <v>1.68</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.58799999999999997</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" s="2">
-        <f>0</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.581538</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8000000000000016E-2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9">
         <f t="shared" si="1"/>
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="2"/>
+        <v>0.59953800000000002</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E10" s="2"/>
       <c r="G10" s="2"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="2"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E11" s="2"/>
       <c r="G11" s="2"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -741,23 +817,31 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.49000000000000005</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.36861500000000003</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12">
         <f t="shared" si="1"/>
-        <v>0.49000000000000005</v>
-      </c>
-      <c r="I12" s="1"/>
+        <v>0.49961500000000003</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -768,21 +852,29 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.49000000000000005</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.48321500000000001</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6400000000000026E-2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="1"/>
-        <v>0.49000000000000005</v>
+        <v>0.49961500000000003</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -794,21 +886,29 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.49000000000000005</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.49961500000000003</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="1"/>
-        <v>0.49000000000000005</v>
+        <v>0.49961500000000003</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -820,21 +920,29 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.39200000000000002</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.367392</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2299999999999995E-2</v>
+      </c>
+      <c r="H15" s="5">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="1"/>
-        <v>0.39200000000000002</v>
+        <v>0.39969199999999999</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">

--- a/atvmans.xlsx
+++ b/atvmans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Desktop\Task manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202F6E40-7D81-4FA2-8970-B4A0C2B55C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12ED1BD-231A-4F53-8D5C-AFC91F14DC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="15030" xr2:uid="{FD453EF9-81AA-49AE-A837-A80D398E3442}"/>
   </bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,15 +570,15 @@
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <f>J3 -H3</f>
-        <v>1.4499910000000003</v>
+        <f>0.5792</f>
+        <v>0.57920000000000005</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="2">
         <f>J3-E3</f>
-        <v>0.24869999999999992</v>
+        <v>1.119491</v>
       </c>
       <c r="H3" s="5">
         <v>0.2487</v>
@@ -642,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E3:E15" si="4">J5 -H5</f>
+        <f t="shared" ref="E5:E15" si="4">J5 -H5</f>
         <v>0.97123000000000004</v>
       </c>
       <c r="F5" t="s">
